--- a/src/ConfusionMatrix/Kairos.xlsx
+++ b/src/ConfusionMatrix/Kairos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
   <si>
     <t>Actual</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>sadness(6)</t>
-  </si>
-  <si>
-    <t>neutral(8)</t>
   </si>
   <si>
     <t>contempt(2)</t>
@@ -209,12 +206,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,6 +216,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,64 +509,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>7</v>
@@ -586,9 +583,9 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -610,10 +607,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
+    <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -634,9 +631,9 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2">
@@ -657,37 +654,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
@@ -708,16 +678,10 @@
       <c r="J7" s="2">
         <v>9</v>
       </c>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2">
@@ -740,13 +704,10 @@
       <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
@@ -769,13 +730,10 @@
       <c r="J9" s="2">
         <v>8</v>
       </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
@@ -796,76 +754,57 @@
       <c r="J10" s="2">
         <v>89</v>
       </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L11" t="s">
+      <c r="H14" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L12" t="s">
+      <c r="I14" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="s">
+      <c r="J14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6" t="s">
+    <row r="15" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>7</v>
@@ -882,9 +821,9 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2">
@@ -907,9 +846,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="2">
         <v>14</v>
@@ -931,8 +870,8 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2">
@@ -953,8 +892,8 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2">
@@ -977,8 +916,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2">
@@ -1003,8 +942,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="2">
@@ -1029,8 +968,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="2">
@@ -1051,55 +990,55 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>8</v>
@@ -1115,8 +1054,8 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2">
@@ -1135,9 +1074,9 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <v>22</v>
@@ -1155,8 +1094,8 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2">
@@ -1179,8 +1118,8 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2">
@@ -1201,8 +1140,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2">
@@ -1225,8 +1164,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2">
@@ -1249,8 +1188,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2">
